--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H2">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>9.009797021234</v>
+        <v>9.974615417961777</v>
       </c>
       <c r="R2">
-        <v>81.08817319110599</v>
+        <v>89.771538761656</v>
       </c>
       <c r="S2">
-        <v>0.001775050613693107</v>
+        <v>0.0007825490640631418</v>
       </c>
       <c r="T2">
-        <v>0.001775050613693107</v>
+        <v>0.0007825490640631419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H3">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I3">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J3">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
-        <v>102.903735988397</v>
+        <v>105.1396157942438</v>
       </c>
       <c r="R3">
-        <v>926.1336238955729</v>
+        <v>946.2565421481941</v>
       </c>
       <c r="S3">
-        <v>0.02027341340621014</v>
+        <v>0.008248629595040198</v>
       </c>
       <c r="T3">
-        <v>0.02027341340621014</v>
+        <v>0.0082486295950402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H4">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I4">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J4">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>30.74625861097899</v>
+        <v>69.87899725107356</v>
       </c>
       <c r="R4">
-        <v>276.7163274988109</v>
+        <v>628.910975259662</v>
       </c>
       <c r="S4">
-        <v>0.006057424499970631</v>
+        <v>0.005482290956103106</v>
       </c>
       <c r="T4">
-        <v>0.006057424499970631</v>
+        <v>0.005482290956103107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H5">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I5">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J5">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>1.107285200426</v>
+        <v>1.459300194666444</v>
       </c>
       <c r="R5">
-        <v>9.965566803833998</v>
+        <v>13.133701751998</v>
       </c>
       <c r="S5">
-        <v>0.000218150006034239</v>
+        <v>0.0001144880232141059</v>
       </c>
       <c r="T5">
-        <v>0.0002181500060342391</v>
+        <v>0.0001144880232141059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.534092</v>
       </c>
       <c r="I6">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J6">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N6">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O6">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P6">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q6">
-        <v>39.43681705487379</v>
+        <v>42.73146333927645</v>
       </c>
       <c r="R6">
-        <v>354.931353493864</v>
+        <v>384.5831700534881</v>
       </c>
       <c r="S6">
-        <v>0.007769580840764474</v>
+        <v>0.003352456735523173</v>
       </c>
       <c r="T6">
-        <v>0.007769580840764473</v>
+        <v>0.003352456735523172</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.534092</v>
       </c>
       <c r="I7">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J7">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q7">
         <v>450.4203369813125</v>
@@ -883,10 +883,10 @@
         <v>4053.783032831813</v>
       </c>
       <c r="S7">
-        <v>0.08873883548033928</v>
+        <v>0.03533730358215217</v>
       </c>
       <c r="T7">
-        <v>0.0887388354803393</v>
+        <v>0.03533730358215217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.534092</v>
       </c>
       <c r="I8">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J8">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N8">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q8">
-        <v>134.5795663437649</v>
+        <v>299.3631016432529</v>
       </c>
       <c r="R8">
-        <v>1211.216097093884</v>
+        <v>2694.267914789276</v>
       </c>
       <c r="S8">
-        <v>0.02651397598259476</v>
+        <v>0.02348625036551404</v>
       </c>
       <c r="T8">
-        <v>0.02651397598259476</v>
+        <v>0.02348625036551404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>15.534092</v>
       </c>
       <c r="I9">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J9">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N9">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q9">
-        <v>4.846702292388445</v>
+        <v>6.251672887267111</v>
       </c>
       <c r="R9">
-        <v>43.620320631496</v>
+        <v>56.265055985404</v>
       </c>
       <c r="S9">
-        <v>0.0009548652270651923</v>
+        <v>0.000490469112017101</v>
       </c>
       <c r="T9">
-        <v>0.0009548652270651924</v>
+        <v>0.000490469112017101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H10">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I10">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J10">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N10">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O10">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P10">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q10">
-        <v>268.9691242458642</v>
+        <v>628.5249845284166</v>
       </c>
       <c r="R10">
-        <v>2420.722118212778</v>
+        <v>5656.724860755749</v>
       </c>
       <c r="S10">
-        <v>0.05299051775882612</v>
+        <v>0.0493103360654198</v>
       </c>
       <c r="T10">
-        <v>0.05299051775882612</v>
+        <v>0.0493103360654198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H11">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I11">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J11">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>260.960411</v>
       </c>
       <c r="O11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q11">
-        <v>3071.981276070517</v>
+        <v>6625.105091410549</v>
       </c>
       <c r="R11">
-        <v>27647.83148463465</v>
+        <v>59625.94582269494</v>
       </c>
       <c r="S11">
-        <v>0.6052214313476133</v>
+        <v>0.5197663841021231</v>
       </c>
       <c r="T11">
-        <v>0.6052214313476135</v>
+        <v>0.5197663841021231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H12">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I12">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J12">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N12">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q12">
-        <v>917.8668767944381</v>
+        <v>4403.247025143658</v>
       </c>
       <c r="R12">
-        <v>8260.801891149942</v>
+        <v>39629.22322629292</v>
       </c>
       <c r="S12">
-        <v>0.1808320608225418</v>
+        <v>0.3454526008250945</v>
       </c>
       <c r="T12">
-        <v>0.1808320608225418</v>
+        <v>0.3454526008250945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H13">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I13">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J13">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N13">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q13">
-        <v>33.05574253749355</v>
+        <v>91.95408482851212</v>
       </c>
       <c r="R13">
-        <v>297.501682837442</v>
+        <v>827.5867634566091</v>
       </c>
       <c r="S13">
-        <v>0.006512423747058281</v>
+        <v>0.007214171173933741</v>
       </c>
       <c r="T13">
-        <v>0.006512423747058283</v>
+        <v>0.007214171173933742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H14">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I14">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J14">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N14">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O14">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P14">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q14">
-        <v>0.6814501489693334</v>
+        <v>0.6560233820902223</v>
       </c>
       <c r="R14">
-        <v>6.133051340724</v>
+        <v>5.904210438812001</v>
       </c>
       <c r="S14">
-        <v>0.0001342548008882451</v>
+        <v>5.146769696341264E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001342548008882451</v>
+        <v>5.146769696341264E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H15">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I15">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J15">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>260.960411</v>
       </c>
       <c r="O15">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P15">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q15">
-        <v>7.783057271271334</v>
+        <v>6.914957966279223</v>
       </c>
       <c r="R15">
-        <v>70.047515441442</v>
+        <v>62.234621696513</v>
       </c>
       <c r="S15">
-        <v>0.001533366462442969</v>
+        <v>0.0005425065185774873</v>
       </c>
       <c r="T15">
-        <v>0.001533366462442969</v>
+        <v>0.0005425065185774873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H16">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I16">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J16">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N16">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O16">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P16">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q16">
-        <v>2.325473311032666</v>
+        <v>4.595892091355444</v>
       </c>
       <c r="R16">
-        <v>20.929259799294</v>
+        <v>41.363028822199</v>
       </c>
       <c r="S16">
-        <v>0.0004581493698633979</v>
+        <v>0.000360566388168609</v>
       </c>
       <c r="T16">
-        <v>0.0004581493698633979</v>
+        <v>0.000360566388168609</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H17">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I17">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J17">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N17">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O17">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P17">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q17">
-        <v>0.08374879733733333</v>
+        <v>0.09597713887455556</v>
       </c>
       <c r="R17">
-        <v>0.7537391760359999</v>
+        <v>0.8637942498710001</v>
       </c>
       <c r="S17">
-        <v>1.649963409379145E-05</v>
+        <v>7.529796092438121E-06</v>
       </c>
       <c r="T17">
-        <v>1.649963409379145E-05</v>
+        <v>7.529796092438122E-06</v>
       </c>
     </row>
   </sheetData>
